--- a/turbo_air_products.xlsx
+++ b/turbo_air_products.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Products" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,6 +432,32 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="49" customWidth="1" min="3" max="3"/>
+    <col width="49" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="34" customWidth="1" min="11" max="11"/>
+    <col width="37" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="15" max="15"/>
+    <col width="28" customWidth="1" min="16" max="16"/>
+    <col width="13" customWidth="1" min="17" max="17"/>
+    <col width="29" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="17" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="21" max="21"/>
+    <col width="50" customWidth="1" min="22" max="22"/>
+    <col width="37" customWidth="1" min="23" max="23"/>
+    <col width="10" customWidth="1" min="24" max="24"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -568,7 +594,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRO Series Refrigerators</t>
+          <t>Reach-In Refrigerator</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -686,7 +712,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRO Series Refrigerators</t>
+          <t>Reach-In Refrigerator</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -804,7 +830,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRO Series Refrigerators</t>
+          <t>Reach-In Refrigerator</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -922,7 +948,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRO Series Refrigerators</t>
+          <t>Reach-In Refrigerator (Half Door)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1040,7 +1066,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRO Series Refrigerators</t>
+          <t>Reach-In Refrigerator</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1158,7 +1184,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRO Series Refrigerators</t>
+          <t>Reach-In Refrigerator (Three Section Half Door)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1276,7 +1302,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Standard Series Refrigerators</t>
+          <t>Solid Door Reach-In Refrigerator</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1394,7 +1420,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Standard Series Refrigerators</t>
+          <t>Solid Door Reach-In Refrigerator</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1512,7 +1538,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Standard Series Refrigerators</t>
+          <t>Solid Door Reach-In Refrigerator</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1630,7 +1656,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Standard Series Refrigerators</t>
+          <t>Solid Door Reach-In Refrigerator</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1743,12 +1769,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>REACH-IN REFRIGERATION</t>
+          <t>GLASS DOOR MERCHANDISERS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Standard Series Refrigerators</t>
+          <t>Glass Door Reach-In Refrigerator</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1861,12 +1887,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>REACH-IN REFRIGERATION</t>
+          <t>GLASS DOOR MERCHANDISERS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Standard Series Refrigerators</t>
+          <t>Glass Door Reach-In Refrigerator</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1979,12 +2005,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>REACH-IN REFRIGERATION</t>
+          <t>GLASS DOOR MERCHANDISERS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Standard Series Refrigerators</t>
+          <t>Glass Door Reach-In Refrigerator</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2097,12 +2123,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>REACH-IN REFRIGERATION</t>
+          <t>GLASS DOOR MERCHANDISERS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Standard Series Refrigerators</t>
+          <t>Glass Door Reach-In Refrigerator</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2220,7 +2246,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Super Deluxe Series Freezers</t>
+          <t>Reach-in Freezer</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2338,7 +2364,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Super Deluxe Series Freezers</t>
+          <t>Reach-in Freezer</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2456,7 +2482,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Super Deluxe Series Freezers</t>
+          <t>Reach-in Freezer</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2574,7 +2600,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>M3 Series Refrigerators</t>
+          <t>Refrigerator</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2692,7 +2718,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>M3 Series Refrigerators</t>
+          <t>Refrigerator</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2810,7 +2836,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>M3 Series Refrigerators</t>
+          <t>Refrigerator</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2928,7 +2954,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>M3 Series Refrigerators</t>
+          <t>Refrigerator</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3046,7 +3072,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>M3 Series Refrigerators</t>
+          <t>Refrigerator</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3164,7 +3190,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>M3 Series Refrigerators</t>
+          <t>Refrigerator</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3282,7 +3308,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>M3 Series Refrigerators</t>
+          <t>Refrigerator</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3400,7 +3426,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>M3 Series Freezers</t>
+          <t>Freezer</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3518,7 +3544,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>M3 Series Freezers</t>
+          <t>Freezer</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3636,7 +3662,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>M3 Series Dual Temperature</t>
+          <t>Heated Cabinet</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3750,7 +3776,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>M3 Series Dual Temperature</t>
+          <t>Heated Cabinet</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3864,7 +3890,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PRO Series Sandwich/Salad Prep Tables</t>
+          <t>Sandwich/Salad Prep Table</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3982,7 +4008,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PRO Series Sandwich/Salad Prep Tables</t>
+          <t>Sandwich/Salad Prep Table</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4100,7 +4126,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PRO Series Sandwich/Salad Prep Tables</t>
+          <t>Sandwich/Salad Prep Table</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4218,7 +4244,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PRO Series Sandwich/Salad Prep Tables</t>
+          <t>Sandwich/Salad Prep Table</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4336,7 +4362,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PRO Series Sandwich/Salad Prep Tables</t>
+          <t>Sandwich/Salad Prep Table</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4454,7 +4480,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PRO Series Sandwich/Salad Prep Tables</t>
+          <t>Sandwich/Salad Prep Table</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4572,7 +4598,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PRO Series Sandwich/Salad Prep Tables</t>
+          <t>Sandwich/Salad Prep Table</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4690,7 +4716,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PRO Series Sandwich/Salad Prep Tables</t>
+          <t>Sandwich/Salad Prep Table</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4808,7 +4834,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PRO Series Sandwich/Salad Prep Tables</t>
+          <t>Sandwich/Salad Prep Table</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4926,7 +4952,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PRO Series Sandwich/Salad Prep Tables</t>
+          <t>Sandwich/Salad Prep Table</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5044,7 +5070,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pizza Prep Tables</t>
+          <t>Pizza Prep Refrigerator</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5162,7 +5188,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pizza Prep Tables</t>
+          <t>Pizza Prep Refrigerator</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5280,7 +5306,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pizza Prep Tables</t>
+          <t>Pizza Prep Refrigerator</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -5398,7 +5424,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>M3 Series Undercounter Refrigerators</t>
+          <t>Undercounter Refrigerator</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -5516,7 +5542,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>M3 Series Undercounter Refrigerators</t>
+          <t>Undercounter Refrigerator</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -5634,7 +5660,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PRO Series Undercounter Refrigerators</t>
+          <t>Undercounter Refrigerator (2-Drawer)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5750,7 +5776,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PRO Series Undercounter Refrigerators</t>
+          <t>Undercounter Refrigerator (Glass Doors)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5868,7 +5894,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>E-line Undercounter Refrigerators</t>
+          <t>Undercounter Refrigerator</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5986,7 +6012,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PRO Series Worktop Refrigerators</t>
+          <t>Worktop Refrigerator</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -6104,7 +6130,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Super Deluxe Worktop Refrigerators</t>
+          <t>Worktop Refrigerator with Drawers</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">

--- a/turbo_air_products.xlsx
+++ b/turbo_air_products.xlsx
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GLASS DOOR MERCHANDISERS</t>
+          <t>REACH-IN REFRIGERATION</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GLASS DOOR MERCHANDISERS</t>
+          <t>REACH-IN REFRIGERATION</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GLASS DOOR MERCHANDISERS</t>
+          <t>REACH-IN REFRIGERATION</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GLASS DOOR MERCHANDISERS</t>
+          <t>REACH-IN REFRIGERATION</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
